--- a/01.design/API_Design.xlsx
+++ b/01.design/API_Design.xlsx
@@ -5,18 +5,21 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Computer_Science\Luvina\DEV9_LA_Training\social-network-springboot-angular\01.design\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DEV9\workspace\social-network-springboot-angular\01.design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5C4660A-A847-4A99-9A4D-257745854368}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2196840C-5F2D-4428-85DE-E6990222FC7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="796" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Đăng ký" sheetId="1" r:id="rId1"/>
     <sheet name="Đăng nhập" sheetId="2" r:id="rId2"/>
     <sheet name="Xác thực đăng nhập" sheetId="3" r:id="rId3"/>
     <sheet name="Quên mật khẩu" sheetId="4" r:id="rId4"/>
+    <sheet name="Xác thực token quên mật khẩu" sheetId="5" r:id="rId5"/>
+    <sheet name="Thay đổi mật khẩu" sheetId="6" r:id="rId6"/>
+    <sheet name="Cập nhật thông tin user" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="136">
   <si>
     <t>1. Khái quát</t>
   </si>
@@ -240,9 +243,6 @@
     <t>"email":"user@email"</t>
   </si>
   <si>
-    <t>/user/forgotpw</t>
-  </si>
-  <si>
     <t>4. Validate</t>
   </si>
   <si>
@@ -253,6 +253,192 @@
   </si>
   <si>
     <t>"The email is not exist"</t>
+  </si>
+  <si>
+    <t>/user/forgot-password</t>
+  </si>
+  <si>
+    <t>Khi người dùng click link trong email sẽ gọi api xác thực token reset password</t>
+  </si>
+  <si>
+    <t>HTTP GET</t>
+  </si>
+  <si>
+    <t>3. Validate</t>
+  </si>
+  <si>
+    <t>Kiểm tra paramter token</t>
+  </si>
+  <si>
+    <t>Nếu không tồn tại hoặc có giá trị rỗng trả về lỗi "The token is invalid"</t>
+  </si>
+  <si>
+    <t>Nếu không có trong db trả về lỗi "The token is invalid"</t>
+  </si>
+  <si>
+    <t>Khi không có lỗi</t>
+  </si>
+  <si>
+    <t>"code":"200",</t>
+  </si>
+  <si>
+    <t>"message":"The token is valid"</t>
+  </si>
+  <si>
+    <t>Khi có lỗi</t>
+  </si>
+  <si>
+    <t>/users/reset?token="eyJhbGciOiJIUzUxMiJ9"</t>
+  </si>
+  <si>
+    <t>Thay đổi mật khẩu đăng nhập user</t>
+  </si>
+  <si>
+    <t>2.Request</t>
+  </si>
+  <si>
+    <t>/user/reset</t>
+  </si>
+  <si>
+    <t>"password":"1234567"</t>
+  </si>
+  <si>
+    <t>Nếu không tồn tại hoặc giá trị rỗng thì trả về lỗi "The email is required"</t>
+  </si>
+  <si>
+    <t>Nếu email không đúng định dạng thì trả về lỗi "The email is an invalid email"</t>
+  </si>
+  <si>
+    <t>Nếu email không tồn tại trong db thì trả về lỗi 'The email does not exist"</t>
+  </si>
+  <si>
+    <t>Nếu không tồn tại hoặc có giá trị rỗng thì trả về lỗi "The password is required"</t>
+  </si>
+  <si>
+    <t>Nếu ít hơn 6 ký tự thì trả về lỗi "The password is at least 6 characters"</t>
+  </si>
+  <si>
+    <t>mã hóa password</t>
+  </si>
+  <si>
+    <t>update password</t>
+  </si>
+  <si>
+    <t>"message":"Update password successfully"</t>
+  </si>
+  <si>
+    <t>Cập nhật thông tin user</t>
+  </si>
+  <si>
+    <t>/users/{id}</t>
+  </si>
+  <si>
+    <t>HTTP PUT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  "id": "1",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  "firstName": "Hung",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  "lastName": "Vo",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  "birthDate": "1989-03-19",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  "phoneNumber": "987654321",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  "currentAddress": "Hanoi",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  "occupation": "Programmer",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  "gender": "MALE",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  "status": "MARRIED"</t>
+  </si>
+  <si>
+    <t>Nếu id không tồn tại hoặc có giá trị rỗng thì trả về lỗi "The id is required"</t>
+  </si>
+  <si>
+    <t>Nếu id không phải số nguyên dương lớn hơn 0 thì trả về lỗi "The Id must be a positive integer"</t>
+  </si>
+  <si>
+    <t>Nếu id không tìm thấy trong db thì trả về lỗi "The Id does not exist"</t>
+  </si>
+  <si>
+    <t>Nếu firstName có giá trị rỗng thì trả về lỗi "The first name cannot be blank"</t>
+  </si>
+  <si>
+    <t>Nếu lastname có giá trị rỗng thì trả về lỗi "The last name cannot be blank"</t>
+  </si>
+  <si>
+    <t>Nếu birthDate không phải ngày hợp lệ thì trả về lỗi "Invalid date format, required yyyy-MM-dd"</t>
+  </si>
+  <si>
+    <t>Nếu phoneNumber có giá trị rỗng thì trả về lỗi "The phone number cannot be blank"</t>
+  </si>
+  <si>
+    <t>Nếu currentAddress có giá trị rỗng thì trả về lỗi "The address cannot be blank"</t>
+  </si>
+  <si>
+    <t>Nếu occupation có giá trị rỗng thì trả về lỗi "The occupation cannot be blank"</t>
+  </si>
+  <si>
+    <t>Nếu gender không tồn tại thì trả về lỗi "The gender is not valid"</t>
+  </si>
+  <si>
+    <t>Nếu status không tồn tại thì trả về lỗi "The status is not valid"</t>
+  </si>
+  <si>
+    <t>Multipart file: image</t>
+  </si>
+  <si>
+    <t>Nếu file không đúng định dạng ảnh thì trả về lỗi "Invalid file format. Only image files are allowed.</t>
+  </si>
+  <si>
+    <t>5.DB</t>
+  </si>
+  <si>
+    <t>upload ảnh</t>
+  </si>
+  <si>
+    <t>update user</t>
+  </si>
+  <si>
+    <t>6.Response</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  "code": "200",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  "userId": 1,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  "message": "Update user successfully"</t>
+  </si>
+  <si>
+    <t>Nếu có lỗi thì trả về lỗi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  "status": "400",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  "message": {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "field1": "error info",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "field2": "error info"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  }</t>
   </si>
 </sst>
 </file>
@@ -575,8 +761,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:I39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19:L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -799,8 +985,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67EDF6F8-BF19-4E9C-9D7B-7023D9DFCEE2}">
   <dimension ref="B2:H39"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32:F39"/>
+    <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1024,7 +1210,7 @@
   <dimension ref="B2:E18"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="B13" sqref="B13:F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1129,8 +1315,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA488308-6BDD-466D-AA11-A2923C00A445}">
   <dimension ref="B2:I31"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19:F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1155,7 +1341,7 @@
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
@@ -1185,12 +1371,12 @@
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I13" t="s">
         <v>12</v>
@@ -1198,10 +1384,10 @@
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
+        <v>72</v>
+      </c>
+      <c r="I14" t="s">
         <v>73</v>
-      </c>
-      <c r="I14" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.25">
@@ -1295,6 +1481,628 @@
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D31" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5185823-036A-46D6-8569-3FB4E3CDE90C}">
+  <dimension ref="B2:F25"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13:G25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D9" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>81</v>
+      </c>
+      <c r="E13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E14" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E15" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>84</v>
+      </c>
+      <c r="E18" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="E19" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="E20" t="s">
+        <v>29</v>
+      </c>
+      <c r="F20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="F21" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="F22" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="F23" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="F24" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="E25" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3392DF2-002A-483A-85E9-504602B2368D}">
+  <dimension ref="B2:F36"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="I34" sqref="I34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="11" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D15" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D16" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D19" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
+        <v>81</v>
+      </c>
+      <c r="E24" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E25" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E26" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E27" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C29" t="s">
+        <v>84</v>
+      </c>
+      <c r="E29" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E30" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E31" t="s">
+        <v>29</v>
+      </c>
+      <c r="F31" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F32" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="33" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="F33" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="34" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="F34" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="35" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="F35" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E36" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F9E3844-552D-4C81-952B-B231E5AD0766}">
+  <dimension ref="B2:E52"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D23" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D24" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D25" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C26">
+        <v>2</v>
+      </c>
+      <c r="D26" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C27">
+        <v>3</v>
+      </c>
+      <c r="D27" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C28">
+        <v>4</v>
+      </c>
+      <c r="D28" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C29">
+        <v>5</v>
+      </c>
+      <c r="D29" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C30">
+        <v>6</v>
+      </c>
+      <c r="D30" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C31">
+        <v>7</v>
+      </c>
+      <c r="D31" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C32">
+        <v>8</v>
+      </c>
+      <c r="D32" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C33">
+        <v>9</v>
+      </c>
+      <c r="D33" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C34">
+        <v>10</v>
+      </c>
+      <c r="D34" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C36" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C37" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C39" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E40" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E41" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E42" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E43" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E44" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C45" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E46" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E47" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E48" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="49" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E49" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="50" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E50" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="51" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E51" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="52" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E52" t="s">
         <v>7</v>
       </c>
     </row>

--- a/01.design/API_Design.xlsx
+++ b/01.design/API_Design.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DEV9\workspace\social-network-springboot-angular\01.design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2196840C-5F2D-4428-85DE-E6990222FC7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{220F63A9-9865-4681-A988-85FD7DF2D9DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="796" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="796" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Đăng ký" sheetId="1" r:id="rId1"/>
@@ -20,8 +20,9 @@
     <sheet name="Xác thực token quên mật khẩu" sheetId="5" r:id="rId5"/>
     <sheet name="Thay đổi mật khẩu" sheetId="6" r:id="rId6"/>
     <sheet name="Cập nhật thông tin user" sheetId="7" r:id="rId7"/>
+    <sheet name="Đăng bài" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1627,7 +1628,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3392DF2-002A-483A-85E9-504602B2368D}">
   <dimension ref="B2:F36"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A10" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
@@ -1820,7 +1821,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F9E3844-552D-4C81-952B-B231E5AD0766}">
   <dimension ref="B2:E52"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A19" workbookViewId="0">
       <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
@@ -2109,4 +2110,18 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B77483C8-2095-463D-8E3C-1AFF91240903}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="N11" sqref="N11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>